--- a/StreamlitAppFinal/alzheimersdataset.xlsx
+++ b/StreamlitAppFinal/alzheimersdataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Test_Code\PINO-Python-Portfolio\StreamlitAppFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7C6D7E-7E1D-4352-9BEA-A6913F0DE198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{520D35DB-0DB6-411A-B9B7-6E3EC862059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="40" windowWidth="11590" windowHeight="15710" xr2:uid="{26808483-E440-479E-98BB-47930E0219B2}"/>
+    <workbookView xWindow="1140" yWindow="210" windowWidth="11590" windowHeight="15710" xr2:uid="{26808483-E440-479E-98BB-47930E0219B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
